--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8ECEE-3C1E-46F3-8B73-5BF442BC267A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C2AD58-3E5A-47DD-9BC5-E55A3512E947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="555" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="2325" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,34 @@
   </si>
   <si>
     <t>设定温度28，有一定差距，低风制冷+关门条件下大约27.5度；17:55设定温度改为28.5，18：08改为高风档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要考虑一下稳定判断是绝对差值好还是比例好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用绝对差值就可以增加采样频率了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废_MV=0.5_BV=0.25_F=33_Grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废_MV=0.5_BV=0.25_F=33_Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*稳定判断重新设置，该测试作废*/该测试中流量稳定的限值偏小，因此实际稳定中的小幅波动被认为不稳定；阀门稳定部分似乎也有点问题，整个稳定判断仅供参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*稳定判断重新设置，该测试作废*/修改稳定判据为绝对差值，ΔV=0.35，ΔQ=0.008，V差值偏小，不合适</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,6 +514,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C2AD58-3E5A-47DD-9BC5-E55A3512E947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83671390-3DE6-4CBC-92A2-7E029D4734D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="2325" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3165" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,58 @@
   </si>
   <si>
     <t>/*稳定判断重新设置，该测试作废*/修改稳定判据为绝对差值，ΔV=0.35，ΔQ=0.008，V差值偏小，不合适</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.5_BV=0.25_F=33_Grad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前Grad和Grad1均作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.32-23.00 60开度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.5_BV=0.5_F=33_Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.5_BV=0.5_F=33_Grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.5_BV=0.25_F=33_Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有MV,BV=(1,0),(1,0.25),(1,0.5),(0.5,0)三工况阶跃和阶梯测试，文件名为"ModiTestId_****_20210625.csv"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.75_BV=0.5_F=33_Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实应为MV=0.75，部分已修改，15:36前部分未修改，误输入为MV=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.75_BV=0.5_F=33_Grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.75_BV=0.25_F=33_Step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,10 +211,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,71 +525,126 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83671390-3DE6-4CBC-92A2-7E029D4734D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E5012-7AFA-4C3F-A785-B772544512D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3165" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="300" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,82 @@
   </si>
   <si>
     <t>MV=0.75_BV=0.25_F=33_Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.75_BV=0.25_F=33_Grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.75_BV=0_F=33_Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.75_BV=0_F=33_Grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real_V2O2R_MV=0.75_BV=0.25_NoLim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎室内温度~出风温度采样还有点快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阀门输出无限制，15:35室内温度设定值27度，AHU低风档；15:50设定温度28度；15:57AHU仅送风;16:09中风档制冷（似乎这一部分数据才好一点，之前很难达到室内设定温度）；16:16高风制冷（压不住压不住）；16:18改27度低风制冷；16:21中风档；16:28室内设定温度28（有制冷情况很难上去）；16:31停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real_V2O_MV=0.75_BV=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个条件下设定温度50度，迟滞导致的流量突降都明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:38出风温度设定50；16:42出风温度53；16:45出风温度45（流量计异常）：16:51停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real_V2F_MV=0.75_BV=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎阀~流量反应小了点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:07设定温度50中风制冷；17:10高风制冷；17:12设定温度53（阀门不响应流量设定变化，是否因为较小？）；17:15设定改为45；17:22改为53（同样不响应），17:27改为55；17:30关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.5_BV=0.5_F=33_2_Grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重测该工况，之前结果偏离较远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV=0.75_BV=0.25_FluctuationTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试阀门往复波动时阻力的变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,6 +723,79 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E5012-7AFA-4C3F-A785-B772544512D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5245D43-1A45-46CB-B209-F26F6B98F42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="300" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="1665" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,88 @@
   </si>
   <si>
     <t>测试阀门往复波动时阻力的变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50</t>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50_2</t>
+  </si>
+  <si>
+    <t>O2F按0.0349/0.199，微分作用略大，但增益刚好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50_3</t>
+  </si>
+  <si>
+    <t>Ti0.199大了，0.536小了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04/0.536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50_4</t>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50_5</t>
+  </si>
+  <si>
+    <t>考虑使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04/0.35，没超调，后半段有0.06/0.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2F按0.032/0.0.536原始设置似乎小了点，达到50度很慢，最终稳定大概50.5，且此测试有流量异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05/0.35，曲线特征与0.06/0.35类似，也可达到50，但开头段增加有一段平缓过程，考虑增益不够？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2F0.1/0.35，震荡上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_MV=1_BV=0_Tset=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.78/0.793，微分作用似乎略强，仍可接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑增益增强后，微分时间应增长从而减少微分作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1/0.536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F2O_MV=1_BV=0_Tset=50_8</t>
+  </si>
+  <si>
+    <t>0.2/1.5，效果更差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,6 +878,90 @@
         <v>54</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5245D43-1A45-46CB-B209-F26F6B98F42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F89B6-F395-499E-961A-4640A47766D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="1665" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13770" yWindow="2520" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,61 @@
   </si>
   <si>
     <t>0.2/1.5，效果更差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_MV=1_BV=0_2/0.793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Nucleo</t>
+  </si>
+  <si>
+    <t>Nucleo控制板测试，仅用于测试阀门位置读取，阀门设定开度控制指令由Nucleo发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/0.793，稳定在51.0，但没有超调部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很有意思的，ADC的精度应该够了，但是转换效果不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_MV=1_BV=0_2.5/0.793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在一点点超调，最终稳定在50.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量超调，稳定约51.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_MV=1_BV=0_3/0.793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_MV=1_BV=0_4/0.793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_MV=1_BV=0_6/0.793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个工况可能能比较好的解释为什么很少出现超调现象，阀门动作过慢，当开大后出风温度会上升从而增益下降。今天测试均没有设置阀门限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6的增益明显大了，出现震荡，并且明显是由于阀门控制器的设置出现的震荡，即要求的开度已经到最低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,6 +1017,60 @@
         <v>76</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F89B6-F395-499E-961A-4640A47766D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB735B70-87DA-435C-B5BF-17A22BF9AA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="2520" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,41 @@
   </si>
   <si>
     <t>6的增益明显大了，出现震荡，并且明显是由于阀门控制器的设置出现的震荡，即要求的开度已经到最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleMethod_mapping_nucleo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试nucleo映射，10ms采样1s输出带10平滑对于阀门读取已经足够，但对于流量需要更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleMethod_mapping_nucleo_25sms</t>
+  </si>
+  <si>
+    <t>2021-10-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样保持不变，流量电流和电压测点均采用25的平滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约16:50将旁通阀关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleo_flowrate_PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,6 +1106,39 @@
         <v>90</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB735B70-87DA-435C-B5BF-17A22BF9AA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33E01E-A580-4832-9DA7-6C70A3937103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t>2021-10-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowrateFluction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量有点异常的波动，周期性相同，考虑是否因信号干扰？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1139,6 +1151,17 @@
         <v>97</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33E01E-A580-4832-9DA7-6C70A3937103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDA863-E3A6-439D-8ED7-DB3D3D022511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,6 +436,168 @@
   </si>
   <si>
     <t>流量有点异常的波动，周期性相同，考虑是否因信号干扰？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F_MV=1_BV=0_IoT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:01 IOT接管，初始送风温度21度，送风温度设定值50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT映射有误，流量和阀门均无法正常读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_Test2</t>
+  </si>
+  <si>
+    <t>17:46接管，映射误差小，基本正常，52出风温度为55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上是机柜（即设定流量的增益不够），本地控制部分是可以的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_testV2F_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_testV2F_1</t>
+  </si>
+  <si>
+    <t>17:06调至BV=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有问题，当将旁通阀调整后，阀门变化非常慢，似乎只有积分项在作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘2021-12-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_testV2F_MV=1_BV=var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:33调至BV=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB-lab无线环境，16:38开, MV=1_BV=0.5,16:44改BV=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:56调至BV=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_WeakNet_MV=1_BV=var_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_V2F_MV=1_BV=0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎C-C全行程的增益又过高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前默认参数为Z-N按有效行程调参，此处改为C-C全行程调参；11:24设定温度调整为45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按全行程Z-N调参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_PoorNet_MV=1_BV=0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_V2F_MV=1_BV=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30调至45，波动略大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_V2F_MV=1_BV=0_L2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45波动大，考虑增益过大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_V2F_MV=1_BV=0_L2H_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效行程的ZN，17:17调至50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按这个保守的增益，阀门基本不动作，不响应50设定点的流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_V2F_MV=1_BV=0_L2H_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZN全行程，效果相对较好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_PoorNet_MV=1_BV=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括网络调试正常，但阀门和AHU没有来得及开启，可能有点问题，rqId466后掉线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_1210_Ideal_MV=1_BV=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定温度50-45，15:39设定温度改45，45度数据用不了，8266自动重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_1210_Ideal_MV=1_BV=0_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎IoT阀门-流量的微分时间长了点，微分作用还能更长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定温度50-45，15:59设定温度改45，一切正常，可用作参考数据，总共10分钟多，大概3次重传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定温度50-45，16:47设定温度改45，一切正常，可用作参考数据，总共10分钟多，大概3次重传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +617,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -756,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,6 +1339,164 @@
         <v>102</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="1">
+        <v>34.176000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDA863-E3A6-439D-8ED7-DB3D3D022511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA27BC-746E-4343-BE9B-D4A43CA03E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7605" yWindow="1035" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +598,81 @@
   </si>
   <si>
     <t>设定温度50-45，16:47设定温度改45，一切正常，可用作参考数据，总共10分钟多，大概3次重传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意一下17:42左右，设定温度是否有变化，没有按确定提交更改，此时有明显的问题，可观察是否由于丢包造成的震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_1227_Ideal_Demo_MV=1_BV=0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>Conv_1228_V2F_MV=1_BV=0.75_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改阀门-流量微分时间为0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoMappingTest_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过LabVIEW自动收集串口信息，用于矫正映射器关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过LabVIEW发送串口信息，开发板直接送回，用于以串口信息为标准，比较网络的速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_1230_Ideal_MV=1_BV=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45不一定能进入震荡区间，以下测试三工况，设定为50， 45， 42，16:48注意，进入迟滞震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_1230_Well_MV=1_BV=0_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv_1230_MV=1_BV=0_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_1230_Weak_MV=1_BV=0_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现大面积丢包情况，且网络有断连现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据实验情况，过渡状态较长，但仍可接近稳态。在本串级控制中丢包，稳态情况下影响较小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1497,6 +1572,79 @@
         <v>143</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA27BC-746E-4343-BE9B-D4A43CA03E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96989EE-488D-4070-8255-6755A29B8A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="1035" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="2325" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,15 +664,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IoT_1230_Weak_MV=1_BV=0_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出现大面积丢包情况，且网络有断连现象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据实验情况，过渡状态较长，但仍可接近稳态。在本串级控制中丢包，稳态情况下影响较小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_1230_Weak_MV=1_BV=0_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti0.33_MV=1_BV=1_0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti0.33_MV=1_BV=0.25_0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下两测试将阀门-流量积分时间改为0.33min，即通过IoT控制板换算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1629,20 +1645,36 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>161</v>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96989EE-488D-4070-8255-6755A29B8A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B814785B-B4D5-4473-9CE1-64D0380BCD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2325" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="2325" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ti0.33_MV=1_BV=1_0105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2022-01-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,6 +685,21 @@
   </si>
   <si>
     <t>以下两测试将阀门-流量积分时间改为0.33min，即通过IoT控制板换算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti0.33_MV=1_BV=0_0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_Low-level_loopTest</t>
+  </si>
+  <si>
+    <t>2022-04-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现内环的IoT控制，IoT控制板增益取全行程Z-N调参，效果不错。由于小数格式过多，通过网络传输的流量信息经常有误，可供参考</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1663,18 +1674,29 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentNote.xlsx
+++ b/ExperimentNote.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\LiXY\CommandAndControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B814785B-B4D5-4473-9CE1-64D0380BCD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BC62C6-DD27-49A7-95AA-3CBBA56BB39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="2325" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1050" windowWidth="21165" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +701,57 @@
   </si>
   <si>
     <t>实现内环的IoT控制，IoT控制板增益取全行程Z-N调参，效果不错。由于小数格式过多，通过网络传输的流量信息经常有误，可供参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_Low-level_loopTest_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新测试修正小数位数后的通讯情况，修正后未出现信息有误情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_0415_NCS_MV=1_BV=0_Good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:57流量有中断，原因未知，可能因阀门截止。阀门的映射误差似乎有点大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_0415_NCS_MV=1_BV=0.25_Weak4</t>
+  </si>
+  <si>
+    <t>15:59流量有下降，原因未知；送风温度45度进入迟滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_0416_NCS_MV=1_BV=0.25_Poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT控制器断连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_0416_NCS_MV=1_BV=0.25_Poor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:01进入迟滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT_0416_NCS_MV=1_BV=0.25_Poor5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专门拿出来的设定50阶跃，非常勉强、断连的网络</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,6 +1751,57 @@
         <v>169</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
